--- a/Controle de Senhas.xlsx
+++ b/Controle de Senhas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Item</t>
   </si>
@@ -63,6 +63,36 @@
   </si>
   <si>
     <t>https://dashboard.opendns.com/</t>
+  </si>
+  <si>
+    <t>s005-slp-ora001.cvd.vek.com.br</t>
+  </si>
+  <si>
+    <t>s005-slh-ora001.cvd.vek.com.br</t>
+  </si>
+  <si>
+    <t>consulta</t>
+  </si>
+  <si>
+    <t>Oracle  PRD</t>
+  </si>
+  <si>
+    <t>Oracle HML</t>
+  </si>
+  <si>
+    <t>vectorxcielo2017</t>
+  </si>
+  <si>
+    <t>6W9tWqWg$BIRjXhW(9VWWGHJKD2SR5(8</t>
+  </si>
+  <si>
+    <t>S005-SWP-MGT001</t>
+  </si>
+  <si>
+    <t>s005-swp-mgt001.vek.com.br</t>
+  </si>
+  <si>
+    <t>Administrator@vek.com.br</t>
   </si>
 </sst>
 </file>
@@ -107,17 +137,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,6 +163,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Item"/>
+    <tableColumn id="2" name="Site"/>
+    <tableColumn id="3" name="Usuário"/>
+    <tableColumn id="4" name="Senha" dataDxfId="0"/>
+    <tableColumn id="5" name="Observação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -480,19 +529,77 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Controle de Senhas.xlsx
+++ b/Controle de Senhas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Item</t>
   </si>
@@ -93,6 +93,24 @@
   </si>
   <si>
     <t>Administrator@vek.com.br</t>
+  </si>
+  <si>
+    <t>Wireless</t>
+  </si>
+  <si>
+    <t>http://s008-rtr-dti001</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>CxJ7D5Z3</t>
+  </si>
+  <si>
+    <t>Vek</t>
+  </si>
+  <si>
+    <t>S008-RTR-DTI001</t>
   </si>
 </sst>
 </file>
@@ -166,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Item"/>
     <tableColumn id="2" name="Site"/>
@@ -476,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,14 +610,40 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>